--- a/Assignment4/Content/Data/info.xlsx
+++ b/Assignment4/Content/Data/info.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R90cc8d5b40d546cc"/>
-    <x:sheet name="Sheet2" sheetId="2" r:id="R5340f7e6a2d5436c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R0ee32ad493aa451a"/>
+    <x:sheet name="Sheet2" sheetId="2" r:id="R4fabeb1919ab46dc"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -38,7 +38,7 @@
     <x:t>200450333</x:t>
   </x:si>
   <x:si>
-    <x:t>c1277b58-63ad-41fd-8304-de3155095d12</x:t>
+    <x:t>c9c316ce-360f-472f-a017-94a496c19216</x:t>
   </x:si>
   <x:si>
     <x:t>Krishnapriya</x:t>
@@ -59,7 +59,7 @@
     <x:t>20033515</x:t>
   </x:si>
   <x:si>
-    <x:t>89bc506d-773f-4cd4-9619-e43514de8f49</x:t>
+    <x:t>40daa609-51ca-4b6d-afc7-3e3cf46447c7</x:t>
   </x:si>
   <x:si>
     <x:t>Chris</x:t>
@@ -77,7 +77,7 @@
     <x:t>200423859</x:t>
   </x:si>
   <x:si>
-    <x:t>ba6e7dd0-4fce-44c9-9c67-5982034239ea</x:t>
+    <x:t>14629e37-d195-4a9b-8019-85303291872a</x:t>
   </x:si>
   <x:si>
     <x:t>Junseob</x:t>
@@ -98,7 +98,7 @@
     <x:t>200425031</x:t>
   </x:si>
   <x:si>
-    <x:t>ca4034a0-c2ce-4b72-90be-2018e0c9ee34</x:t>
+    <x:t>c0602d5f-632b-4f2d-af3d-07f6fdb8ce0a</x:t>
   </x:si>
   <x:si>
     <x:t>Sathish</x:t>
@@ -116,7 +116,7 @@
     <x:t>200425170</x:t>
   </x:si>
   <x:si>
-    <x:t>6dcf99f3-4187-4bad-ae1b-160b68ba2803</x:t>
+    <x:t>97351d0d-c95f-4ffc-b2f3-50434f7cb33d</x:t>
   </x:si>
   <x:si>
     <x:t>Sukanya</x:t>
@@ -134,7 +134,7 @@
     <x:t>200425198</x:t>
   </x:si>
   <x:si>
-    <x:t>c449b49d-23a6-4c39-92bc-fa9fefbff6a8</x:t>
+    <x:t>a5f903c3-6a4f-46ab-92ac-4d2dd3182759</x:t>
   </x:si>
   <x:si>
     <x:t>MaryPravalika</x:t>
@@ -152,7 +152,7 @@
     <x:t>200427977</x:t>
   </x:si>
   <x:si>
-    <x:t>5e6d87ef-b3ca-48f5-baad-777af227052d</x:t>
+    <x:t>09865113-be48-4c8e-beb6-82f518e3dea4</x:t>
   </x:si>
   <x:si>
     <x:t>Mostafizur</x:t>
@@ -167,10 +167,28 @@
     <x:t>=INT((TODAY()-E8)/365)</x:t>
   </x:si>
   <x:si>
+    <x:t>200425898</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bd0e207c-527c-4209-abbe-b734d140effc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ankita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Singh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/10/1998</x:t>
+  </x:si>
+  <x:si>
+    <x:t>=INT((TODAY()-E9)/365)</x:t>
+  </x:si>
+  <x:si>
     <x:t>200427531</x:t>
   </x:si>
   <x:si>
-    <x:t>29f6b2b7-36b8-4086-8493-c6924ce24a43</x:t>
+    <x:t>001b8ab5-ae33-4297-88e2-a4e6426a2e8c</x:t>
   </x:si>
   <x:si>
     <x:t>Prakash</x:t>
@@ -182,19 +200,19 @@
     <x:t>12/27/1993</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E9)/365)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c9fff3da-57b8-4c31-b1e2-ddc8882dcd22</x:t>
-  </x:si>
-  <x:si>
     <x:t>=INT((TODAY()-E10)/365)</x:t>
   </x:si>
   <x:si>
+    <x:t>bc7b4487-59fb-48f7-9af9-ae6cdfb240fb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>=INT((TODAY()-E11)/365)</x:t>
+  </x:si>
+  <x:si>
     <x:t>200429013</x:t>
   </x:si>
   <x:si>
-    <x:t>5e06be51-ad80-499a-bd9f-f4ebf2e3aceb</x:t>
+    <x:t>9e06eea5-8fa6-4cda-9133-8eb533ea6e14</x:t>
   </x:si>
   <x:si>
     <x:t>Priyanka</x:t>
@@ -206,13 +224,13 @@
     <x:t>12/09/1993</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E11)/365)</x:t>
+    <x:t>=INT((TODAY()-E12)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200429017</x:t>
   </x:si>
   <x:si>
-    <x:t>f222097a-3d22-425d-887d-35ed72fc902e</x:t>
+    <x:t>554bc466-f3df-440b-aa8a-28c3d0de5083</x:t>
   </x:si>
   <x:si>
     <x:t>Manpreet</x:t>
@@ -224,13 +242,13 @@
     <x:t>10/27/1994</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E12)/365)</x:t>
+    <x:t>=INT((TODAY()-E13)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200429019</x:t>
   </x:si>
   <x:si>
-    <x:t>17b82fff-70a5-4a2c-9590-efd6c0231c97</x:t>
+    <x:t>f30da521-7da1-4fd0-9b6e-b71d809f76c6</x:t>
   </x:si>
   <x:si>
     <x:t>Pranav</x:t>
@@ -242,13 +260,13 @@
     <x:t>09/19/1997</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E13)/365)</x:t>
+    <x:t>=INT((TODAY()-E14)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200429439</x:t>
   </x:si>
   <x:si>
-    <x:t>c83428fd-c84e-448c-a139-69c384dc0859</x:t>
+    <x:t>731fa11a-943c-41c3-b124-1a16a55777be</x:t>
   </x:si>
   <x:si>
     <x:t>Kavya</x:t>
@@ -260,13 +278,13 @@
     <x:t>09/08/1994</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E14)/365)</x:t>
+    <x:t>=INT((TODAY()-E15)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200429757</x:t>
   </x:si>
   <x:si>
-    <x:t>547d52ca-fbfb-4a99-8fbf-f289a5919a6a</x:t>
+    <x:t>9f3bf83e-2bda-4fac-9945-dd020dd1c55d</x:t>
   </x:si>
   <x:si>
     <x:t>Aditya</x:t>
@@ -278,13 +296,13 @@
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E15)/365)</x:t>
+    <x:t>=INT((TODAY()-E16)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200430242</x:t>
   </x:si>
   <x:si>
-    <x:t>6f66aeb8-f4ff-4626-a4b5-b0e294fbc0f3</x:t>
+    <x:t>f2886471-da2b-4fed-a067-6c5327319e8b</x:t>
   </x:si>
   <x:si>
     <x:t>BalaPrathima</x:t>
@@ -296,13 +314,13 @@
     <x:t>03/03/1996</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E16)/365)</x:t>
+    <x:t>=INT((TODAY()-E17)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200430858</x:t>
   </x:si>
   <x:si>
-    <x:t>dadf0fc2-7706-4f90-9678-d10e9d6dfb38</x:t>
+    <x:t>e4eed4bc-a4e0-4fd6-85bc-90520da22104</x:t>
   </x:si>
   <x:si>
     <x:t>Prajwal</x:t>
@@ -314,13 +332,13 @@
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E17)/365)</x:t>
+    <x:t>=INT((TODAY()-E18)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200439773</x:t>
   </x:si>
   <x:si>
-    <x:t>6e7ab584-081f-49b7-9095-9fc2b5c316f8</x:t>
+    <x:t>80e96452-d21a-4189-af21-d986b5d01a18</x:t>
   </x:si>
   <x:si>
     <x:t>Preet</x:t>
@@ -332,13 +350,13 @@
     <x:t>10/04/1998</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E18)/365)</x:t>
+    <x:t>=INT((TODAY()-E19)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200439932</x:t>
   </x:si>
   <x:si>
-    <x:t>a3a3a738-0209-4cf9-bdc3-e3e034f1b6f6</x:t>
+    <x:t>8970b0fa-6df0-48dd-b322-43d236008b9a</x:t>
   </x:si>
   <x:si>
     <x:t>Bruno</x:t>
@@ -350,13 +368,13 @@
     <x:t>07/05/1976</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E19)/365)</x:t>
+    <x:t>=INT((TODAY()-E20)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200443399</x:t>
   </x:si>
   <x:si>
-    <x:t>6d7501cc-368b-4f27-98f1-55aa3a7c1c02</x:t>
+    <x:t>c617709b-2823-4d9a-b564-7fdd8a341fa6</x:t>
   </x:si>
   <x:si>
     <x:t>Tugrul</x:t>
@@ -368,13 +386,13 @@
     <x:t>10/08/1995</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E20)/365)</x:t>
+    <x:t>=INT((TODAY()-E21)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200445913</x:t>
   </x:si>
   <x:si>
-    <x:t>05770305-8c07-42ff-bc42-2753a1af2033</x:t>
+    <x:t>e1469983-1f06-4b04-a139-f6b0f38ec638</x:t>
   </x:si>
   <x:si>
     <x:t>Katuwal</x:t>
@@ -383,13 +401,13 @@
     <x:t>7/16/1993</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E21)/365)</x:t>
+    <x:t>=INT((TODAY()-E22)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200446535</x:t>
   </x:si>
   <x:si>
-    <x:t>64a8cdc3-71f7-4b96-bc64-4f4648652d9c</x:t>
+    <x:t>22e86fa5-56c8-4c17-8876-d30afeacedca</x:t>
   </x:si>
   <x:si>
     <x:t>Pavel</x:t>
@@ -401,13 +419,13 @@
     <x:t>03/20/1988</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E22)/365)</x:t>
+    <x:t>=INT((TODAY()-E23)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>2200447714</x:t>
   </x:si>
   <x:si>
-    <x:t>4b8946a6-4db2-4e1f-9c0c-05240c1ec4ee</x:t>
+    <x:t>3ee83c53-f497-4bc4-8cdf-f7d8e023dced</x:t>
   </x:si>
   <x:si>
     <x:t>swarnim</x:t>
@@ -419,19 +437,19 @@
     <x:t>01/05/2020</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E23)/365)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35f8142b-4c00-4c8b-9bf3-1d204d96930e</x:t>
-  </x:si>
-  <x:si>
     <x:t>=INT((TODAY()-E24)/365)</x:t>
   </x:si>
   <x:si>
+    <x:t>8d39e764-4cf3-4e55-b04b-2b972b812a7e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>=INT((TODAY()-E25)/365)</x:t>
+  </x:si>
+  <x:si>
     <x:t>200447184</x:t>
   </x:si>
   <x:si>
-    <x:t>9b16c04f-b60e-4186-9df2-54962fa03e18</x:t>
+    <x:t>43a0cadf-6e10-47df-b05e-69c4fcdb9095</x:t>
   </x:si>
   <x:si>
     <x:t>Jay</x:t>
@@ -443,13 +461,13 @@
     <x:t>01/27/1998</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E25)/365)</x:t>
+    <x:t>=INT((TODAY()-E26)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200447197</x:t>
   </x:si>
   <x:si>
-    <x:t>615a380e-ffdc-41fc-9499-feabbff211cb</x:t>
+    <x:t>cf3b5d37-9de6-4f84-81af-8e3f88014e69</x:t>
   </x:si>
   <x:si>
     <x:t>HemaAbhinandu</x:t>
@@ -461,13 +479,13 @@
     <x:t>04-15-1997</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E26)/365)</x:t>
+    <x:t>=INT((TODAY()-E27)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200447261</x:t>
   </x:si>
   <x:si>
-    <x:t>714e13da-0797-480f-824b-e5e90038a775</x:t>
+    <x:t>56216e8c-e0a2-486d-b6e7-a635fbcbfb29</x:t>
   </x:si>
   <x:si>
     <x:t>AkhilDas</x:t>
@@ -479,13 +497,13 @@
     <x:t>07/04/1993</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E27)/365)</x:t>
+    <x:t>=INT((TODAY()-E28)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200447330</x:t>
   </x:si>
   <x:si>
-    <x:t>a2a4931d-05fb-4c5d-a3e9-dbb97e9c9270</x:t>
+    <x:t>5462ce30-ce53-4a4e-a458-b9830472a0fd</x:t>
   </x:si>
   <x:si>
     <x:t>Swathi</x:t>
@@ -497,13 +515,13 @@
     <x:t>04/05/1992</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E28)/365)</x:t>
+    <x:t>=INT((TODAY()-E29)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200447599</x:t>
   </x:si>
   <x:si>
-    <x:t>6139f365-8673-47be-afd9-f1e171a070ef</x:t>
+    <x:t>54caf5c1-b62d-4c08-833a-4c093c6e0035</x:t>
   </x:si>
   <x:si>
     <x:t>KavirajSingh</x:t>
@@ -515,13 +533,13 @@
     <x:t>9/22/1994</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E29)/365)</x:t>
+    <x:t>=INT((TODAY()-E30)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200447744</x:t>
   </x:si>
   <x:si>
-    <x:t>3ad5ace8-fc95-48fe-aebc-0c8d2887ac37</x:t>
+    <x:t>b2e7362f-57b4-4e72-ad30-dcea6edf5de2</x:t>
   </x:si>
   <x:si>
     <x:t>Althaf</x:t>
@@ -533,13 +551,13 @@
     <x:t>05/10/1993</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E30)/365)</x:t>
+    <x:t>=INT((TODAY()-E31)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200447887</x:t>
   </x:si>
   <x:si>
-    <x:t>4b1e0860-cb38-400b-bfe0-f556197dc2e4</x:t>
+    <x:t>a9767467-4a6d-4cec-99dc-75a8412f8bac</x:t>
   </x:si>
   <x:si>
     <x:t>Nipin</x:t>
@@ -548,16 +566,16 @@
     <x:t>Dasani</x:t>
   </x:si>
   <x:si>
-    <x:t>01/29/1998</x:t>
-  </x:si>
-  <x:si>
-    <x:t>=INT((TODAY()-E31)/365)</x:t>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>=INT((TODAY()-E32)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200448226</x:t>
   </x:si>
   <x:si>
-    <x:t>f6daf7b4-1aa3-41b1-8cbb-1f6881e01bc9</x:t>
+    <x:t>b92feeeb-e726-4134-96d4-3053317fd434</x:t>
   </x:si>
   <x:si>
     <x:t>Avi</x:t>
@@ -569,13 +587,13 @@
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E32)/365)</x:t>
+    <x:t>=INT((TODAY()-E33)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200448232</x:t>
   </x:si>
   <x:si>
-    <x:t>d9727f54-9a3e-4a01-aa5c-f3f5b2876c58</x:t>
+    <x:t>2ad6288c-b31a-46d3-aa9b-866861c7bdd6</x:t>
   </x:si>
   <x:si>
     <x:t>Kashish</x:t>
@@ -584,16 +602,16 @@
     <x:t>Jhaveri</x:t>
   </x:si>
   <x:si>
-    <x:t>12/26/1996</x:t>
-  </x:si>
-  <x:si>
-    <x:t>=INT((TODAY()-E33)/365)</x:t>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>=INT((TODAY()-E34)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200449068</x:t>
   </x:si>
   <x:si>
-    <x:t>34a53591-8985-49fd-a1f1-b63e091f114c</x:t>
+    <x:t>bf960cbc-1e21-4720-a5d8-9662f1248dd5</x:t>
   </x:si>
   <x:si>
     <x:t>Robert</x:t>
@@ -602,16 +620,16 @@
     <x:t>Routledge</x:t>
   </x:si>
   <x:si>
-    <x:t>05/20/1980</x:t>
-  </x:si>
-  <x:si>
-    <x:t>=INT((TODAY()-E34)/365)</x:t>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>=INT((TODAY()-E35)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200449112</x:t>
   </x:si>
   <x:si>
-    <x:t>9ce73f4d-1dfd-4075-a04f-d003cb9ee29c</x:t>
+    <x:t>738ab5a2-a36a-47f4-a73b-ea2defccf56a</x:t>
   </x:si>
   <x:si>
     <x:t>Sahiba</x:t>
@@ -623,13 +641,13 @@
     <x:t>08/23/1994</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E35)/365)</x:t>
+    <x:t>=INT((TODAY()-E36)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200449872</x:t>
   </x:si>
   <x:si>
-    <x:t>ef031153-f5ac-4ced-9e92-917e5f6393d3</x:t>
+    <x:t>e9937154-4b20-4f10-b3e7-6b411f21d03c</x:t>
   </x:si>
   <x:si>
     <x:t>Sofiya</x:t>
@@ -641,13 +659,13 @@
     <x:t>09/22/1993</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E36)/365)</x:t>
+    <x:t>=INT((TODAY()-E37)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200450261</x:t>
   </x:si>
   <x:si>
-    <x:t>53869b35-5365-459f-b1d3-f2b3c49bf2ac</x:t>
+    <x:t>4918a001-9f4a-4e40-9c8c-56b026c969a2</x:t>
   </x:si>
   <x:si>
     <x:t>Sony</x:t>
@@ -659,22 +677,22 @@
     <x:t>04/15/1994</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E37)/365)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23390721-b99f-4a8c-9e43-4bbd3f749871</x:t>
+    <x:t>=INT((TODAY()-E38)/365)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bf1e3059-d842-4a5c-862b-f2f1af46d4d0</x:t>
   </x:si>
   <x:si>
     <x:t>12/31/1992</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E38)/365)</x:t>
+    <x:t>=INT((TODAY()-E39)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200450515</x:t>
   </x:si>
   <x:si>
-    <x:t>9516ebf9-c2fc-4071-907b-922501161c6e</x:t>
+    <x:t>cdb11ed0-d7d0-4a6e-97d2-af603c0e63db</x:t>
   </x:si>
   <x:si>
     <x:t>SargunSingh</x:t>
@@ -686,13 +704,13 @@
     <x:t>07/18/1994</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E39)/365)</x:t>
+    <x:t>=INT((TODAY()-E40)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200450550</x:t>
   </x:si>
   <x:si>
-    <x:t>ffd14164-9c52-4b8c-8850-ee652269534d</x:t>
+    <x:t>03f9a6ef-cd25-4708-84c0-10dc5d1eb980</x:t>
   </x:si>
   <x:si>
     <x:t>Nikhil</x:t>
@@ -704,31 +722,28 @@
     <x:t>11/30/1997</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E40)/365)</x:t>
+    <x:t>=INT((TODAY()-E41)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200450635</x:t>
   </x:si>
   <x:si>
-    <x:t>071e4f2e-2b1a-43d1-b459-ffaea6cee0e0</x:t>
+    <x:t>82c6faec-c808-4594-986f-6e6e0df0bf57</x:t>
   </x:si>
   <x:si>
     <x:t>Gurminder</x:t>
   </x:si>
   <x:si>
-    <x:t>Singh</x:t>
-  </x:si>
-  <x:si>
     <x:t>2/9/1997</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E41)/365)</x:t>
+    <x:t>=INT((TODAY()-E42)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200450730</x:t>
   </x:si>
   <x:si>
-    <x:t>41b793f8-6ff6-4bbe-bdcd-45a86d8cfbfe</x:t>
+    <x:t>44de2328-d5d7-4853-af75-ff854bf4f7ae</x:t>
   </x:si>
   <x:si>
     <x:t>Vrunda</x:t>
@@ -737,13 +752,13 @@
     <x:t>05/26/1998</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E42)/365)</x:t>
+    <x:t>=INT((TODAY()-E43)/365)</x:t>
   </x:si>
   <x:si>
     <x:t>200451605</x:t>
   </x:si>
   <x:si>
-    <x:t>c606bcec-a02c-4f18-9ecc-db575e4509a1</x:t>
+    <x:t>01e6eef9-c68a-4084-90a1-c13254f07372</x:t>
   </x:si>
   <x:si>
     <x:t>Vrushabh</x:t>
@@ -752,7 +767,7 @@
     <x:t>6/15/1996</x:t>
   </x:si>
   <x:si>
-    <x:t>=INT((TODAY()-E43)/365)</x:t>
+    <x:t>=INT((TODAY()-E44)/365)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -987,42 +1002,42 @@
     </x:row>
     <x:row r="10">
       <x:c r="A10" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="B10" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="C10" t="s">
-        <x:v>48</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E10" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F10" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G10" t="s">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
       <x:c r="A11" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>60</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>62</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>63</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E11" t="s">
-        <x:v>64</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F11" t="s">
         <x:v>13</x:v>
@@ -1246,30 +1261,30 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="C21" t="s">
-        <x:v>98</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D21" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E21" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F21" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G21" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
       <x:c r="A22" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B22" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="B22" t="s">
-        <x:v>125</x:v>
-      </x:c>
       <x:c r="C22" t="s">
-        <x:v>127</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D22" t="s">
         <x:v>128</x:v>
@@ -1309,42 +1324,42 @@
     </x:row>
     <x:row r="24">
       <x:c r="A24" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B24" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="B24" t="s">
-        <x:v>114</x:v>
-      </x:c>
       <x:c r="C24" t="s">
-        <x:v>116</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D24" t="s">
-        <x:v>117</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E24" t="s">
-        <x:v>118</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F24" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G24" t="s">
-        <x:v>138</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
       <x:c r="A25" t="s">
-        <x:v>140</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B25" t="s">
-        <x:v>139</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C25" t="s">
-        <x:v>141</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D25" t="s">
-        <x:v>142</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E25" t="s">
-        <x:v>143</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F25" t="s">
         <x:v>13</x:v>
@@ -1631,39 +1646,39 @@
     </x:row>
     <x:row r="38">
       <x:c r="A38" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B38" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="B38" t="s">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="C38" t="s">
-        <x:v>10</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D38" t="s">
-        <x:v>11</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E38" t="s">
-        <x:v>218</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F38" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G38" t="s">
-        <x:v>219</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="39">
       <x:c r="A39" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B39" t="s">
-        <x:v>220</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C39" t="s">
-        <x:v>222</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D39" t="s">
-        <x:v>223</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E39" t="s">
         <x:v>224</x:v>
@@ -1732,7 +1747,7 @@
         <x:v>240</x:v>
       </x:c>
       <x:c r="D42" t="s">
-        <x:v>229</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E42" t="s">
         <x:v>241</x:v>
@@ -1755,7 +1770,7 @@
         <x:v>245</x:v>
       </x:c>
       <x:c r="D43" t="s">
-        <x:v>229</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E43" t="s">
         <x:v>246</x:v>
@@ -1765,6 +1780,29 @@
       </x:c>
       <x:c r="G43" t="s">
         <x:v>247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c r="A44" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="B44" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="C44" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="D44" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="E44" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="F44" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G44" t="s">
+        <x:v>252</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
